--- a/chapter 2/Conditional.xlsx
+++ b/chapter 2/Conditional.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Curt\Desktop\Exercise Files\Chapter02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scarstruck/Git/excel_vlookups/chapter 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{87CEDEFD-E9DD-4120-B23F-D4ABE7640748}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A89D11D-39A2-0443-A3A2-CA2B4B9A7FDA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="9375" windowHeight="9915" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="25120" windowHeight="14000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commissions" sheetId="1" r:id="rId1"/>
     <sheet name="Cities" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -503,16 +503,16 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,7 +526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -536,9 +536,12 @@
       <c r="C2" s="2">
         <v>182000</v>
       </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="2">
+        <f>IF(C2&gt;=B2,C2*7%,C2*5%)</f>
+        <v>9100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -548,9 +551,12 @@
       <c r="C3" s="2">
         <v>190000</v>
       </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D7" si="0">IF(C3&gt;=B3,C3*7%,C3*5%)</f>
+        <v>13300.000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -560,9 +566,12 @@
       <c r="C4" s="2">
         <v>205000</v>
       </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>10250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -572,9 +581,12 @@
       <c r="C5" s="2">
         <v>200000</v>
       </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>14000.000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -584,9 +596,12 @@
       <c r="C6" s="2">
         <v>180000</v>
       </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -596,7 +611,10 @@
       <c r="C7" s="2">
         <v>180000</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>9000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -608,18 +626,18 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -630,7 +648,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2017</v>
       </c>
@@ -643,9 +661,12 @@
       <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="2">
+        <f>SUMIF(B2:B9,"=Batteries",C2:C9)</f>
+        <v>203590</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2017</v>
       </c>
@@ -658,9 +679,12 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="2">
+        <f>AVERAGEIF(B2:B9,"=Lightbulbs",C2:C9)</f>
+        <v>67335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -673,9 +697,12 @@
       <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="2">
+        <f>COUNTIF(C2:C9,"&gt;=100000")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -688,9 +715,12 @@
       <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="2">
+        <f>SUMIFS(C2:C9,A2:A9,"=2017",B2:B9,"=Landscape Lighting")</f>
+        <v>88976</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -703,8 +733,12 @@
       <c r="E6" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="2">
+        <f>AVERAGEIFS(C2:C9,A2:A9,"=2018",B2:B9,"=Landscape Lighting")</f>
+        <v>107203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -717,8 +751,12 @@
       <c r="E7" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="2">
+        <f>COUNTIFS(A2:A9,"&gt;=2017",B2:B9,"=Lightbulbs")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2018</v>
       </c>
@@ -729,7 +767,7 @@
         <v>38327</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2018</v>
       </c>
